--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17100.16361930914</v>
+        <v>3402932.560242517</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17100.16361930914</v>
+        <v>3402932.560242517</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54564.40679100751</v>
+        <v>3402920.02394874</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54564.40679100751</v>
+        <v>3402920.02394874</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267457532.261175</v>
+        <v>50457031.28967547</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13819.62857984633</v>
+        <v>1377239.876899228</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25205.98658571155</v>
+        <v>2342322.18436157</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36604.20619553238</v>
+        <v>3307404.491823913</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48541.79197043211</v>
+        <v>4271258.955158075</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60479.5145894758</v>
+        <v>5235140.650476756</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72417.23720851855</v>
+        <v>6199022.345795639</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84354.95982756102</v>
+        <v>7162904.041114463</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96292.6824466035</v>
+        <v>8126785.736433281</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108230.4050656463</v>
+        <v>9090667.431751991</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120168.1276846886</v>
+        <v>10054549.12707096</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132105.8503037303</v>
+        <v>11018430.82238996</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144043.5729227715</v>
+        <v>11982312.51770905</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155981.2955418134</v>
+        <v>12946194.21302779</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167919.0181608566</v>
+        <v>13910075.9083464</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179856.7407798999</v>
+        <v>14873957.60366508</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000296</v>
@@ -27055,7 +27055,7 @@
         <v>2.062861550832167e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>-5.129788070917128e-13</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
